--- a/Master.xlsx
+++ b/Master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="611">
   <si>
     <t>Block</t>
   </si>
@@ -1456,6 +1456,9 @@
     <t>TR</t>
   </si>
   <si>
+    <t>ONLINE</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
@@ -1480,6 +1483,9 @@
     <t>SATURDAY</t>
   </si>
   <si>
+    <t>OFF CAMPUS</t>
+  </si>
+  <si>
     <t>10:10:00</t>
   </si>
   <si>
@@ -1696,10 +1702,10 @@
     <t>MAIN</t>
   </si>
   <si>
+    <t>TBD</t>
+  </si>
+  <si>
     <t>FIELLD</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>K</t>
@@ -2268,22 +2274,22 @@
         <v>477</v>
       </c>
       <c r="H2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J2">
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2306,22 +2312,22 @@
         <v>477</v>
       </c>
       <c r="H3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="J3">
         <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2347,22 +2353,22 @@
         <v>477</v>
       </c>
       <c r="H4" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J4">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M4" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2385,22 +2391,22 @@
         <v>478</v>
       </c>
       <c r="H5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="J5">
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2426,22 +2432,22 @@
         <v>479</v>
       </c>
       <c r="H6" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I6" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J6">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M6" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2467,22 +2473,22 @@
         <v>479</v>
       </c>
       <c r="H7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J7">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2505,22 +2511,22 @@
         <v>479</v>
       </c>
       <c r="H8" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I8" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J8">
         <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L8" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2542,8 +2548,20 @@
       <c r="F9" t="s">
         <v>407</v>
       </c>
+      <c r="G9" t="s">
+        <v>480</v>
+      </c>
       <c r="J9">
         <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>562</v>
+      </c>
+      <c r="L9" t="s">
+        <v>562</v>
+      </c>
+      <c r="M9" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2566,22 +2584,22 @@
         <v>479</v>
       </c>
       <c r="H10" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I10" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="J10">
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L10" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M10" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2604,22 +2622,22 @@
         <v>477</v>
       </c>
       <c r="H11" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I11" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J11">
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L11" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M11" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2645,22 +2663,22 @@
         <v>477</v>
       </c>
       <c r="H12" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I12" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J12">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L12" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M12" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2686,22 +2704,22 @@
         <v>477</v>
       </c>
       <c r="H13" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I13" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J13">
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L13" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M13" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2724,25 +2742,25 @@
         <v>477</v>
       </c>
       <c r="H14" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I14" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="J14">
         <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L14" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M14" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="N14" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2768,22 +2786,22 @@
         <v>479</v>
       </c>
       <c r="H15" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I15" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J15">
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L15" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M15" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2809,22 +2827,22 @@
         <v>479</v>
       </c>
       <c r="H16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I16" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J16">
         <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L16" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M16" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2844,25 +2862,25 @@
         <v>409</v>
       </c>
       <c r="G17" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H17" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I17" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J17">
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M17" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2884,11 +2902,23 @@
       <c r="F18" t="s">
         <v>409</v>
       </c>
+      <c r="G18" t="s">
+        <v>480</v>
+      </c>
       <c r="J18">
         <v>24</v>
       </c>
+      <c r="K18" t="s">
+        <v>562</v>
+      </c>
+      <c r="L18" t="s">
+        <v>562</v>
+      </c>
+      <c r="M18" t="s">
+        <v>562</v>
+      </c>
       <c r="N18" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2910,8 +2940,20 @@
       <c r="F19" t="s">
         <v>409</v>
       </c>
+      <c r="G19" t="s">
+        <v>480</v>
+      </c>
       <c r="J19">
         <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>562</v>
+      </c>
+      <c r="L19" t="s">
+        <v>562</v>
+      </c>
+      <c r="M19" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2934,22 +2976,22 @@
         <v>477</v>
       </c>
       <c r="H20" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I20" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J20">
         <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L20" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M20" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2972,22 +3014,22 @@
         <v>477</v>
       </c>
       <c r="H21" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I21" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J21">
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L21" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M21" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -3013,22 +3055,22 @@
         <v>477</v>
       </c>
       <c r="H22" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I22" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J22">
         <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L22" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M22" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -3051,22 +3093,22 @@
         <v>477</v>
       </c>
       <c r="H23" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I23" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="J23">
         <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L23" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M23" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -3092,22 +3134,22 @@
         <v>479</v>
       </c>
       <c r="H24" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I24" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J24">
         <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L24" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M24" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -3130,22 +3172,22 @@
         <v>479</v>
       </c>
       <c r="H25" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I25" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J25">
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L25" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M25" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -3165,25 +3207,25 @@
         <v>411</v>
       </c>
       <c r="G26" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H26" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="I26" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J26">
         <v>15</v>
       </c>
       <c r="K26" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L26" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M26" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3205,8 +3247,20 @@
       <c r="F27" t="s">
         <v>408</v>
       </c>
+      <c r="G27" t="s">
+        <v>480</v>
+      </c>
       <c r="J27">
         <v>24</v>
+      </c>
+      <c r="K27" t="s">
+        <v>480</v>
+      </c>
+      <c r="L27" t="s">
+        <v>480</v>
+      </c>
+      <c r="M27" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3228,8 +3282,20 @@
       <c r="F28" t="s">
         <v>412</v>
       </c>
+      <c r="G28" t="s">
+        <v>480</v>
+      </c>
       <c r="J28">
         <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>480</v>
+      </c>
+      <c r="L28" t="s">
+        <v>480</v>
+      </c>
+      <c r="M28" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3252,22 +3318,22 @@
         <v>477</v>
       </c>
       <c r="H29" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I29" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="J29">
         <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L29" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M29" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3290,22 +3356,22 @@
         <v>479</v>
       </c>
       <c r="H30" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I30" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J30">
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L30" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M30" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3328,22 +3394,22 @@
         <v>477</v>
       </c>
       <c r="H31" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I31" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="J31">
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L31" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M31" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3366,25 +3432,25 @@
         <v>479</v>
       </c>
       <c r="H32" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I32" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="J32">
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L32" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M32" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N32" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3410,22 +3476,22 @@
         <v>478</v>
       </c>
       <c r="H33" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I33" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J33">
         <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L33" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M33" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3448,25 +3514,25 @@
         <v>477</v>
       </c>
       <c r="H34" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I34" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J34">
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L34" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M34" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N34" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3489,25 +3555,25 @@
         <v>477</v>
       </c>
       <c r="H35" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I35" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J35">
         <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L35" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M35" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N35" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3533,22 +3599,22 @@
         <v>479</v>
       </c>
       <c r="H36" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I36" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J36">
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L36" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M36" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3574,22 +3640,22 @@
         <v>479</v>
       </c>
       <c r="H37" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I37" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J37">
         <v>18</v>
       </c>
       <c r="K37" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M37" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3609,25 +3675,25 @@
         <v>416</v>
       </c>
       <c r="G38" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H38" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I38" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J38">
         <v>14</v>
       </c>
       <c r="K38" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L38" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M38" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3650,22 +3716,22 @@
         <v>478</v>
       </c>
       <c r="H39" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I39" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="J39">
         <v>14</v>
       </c>
       <c r="K39" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L39" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M39" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3691,22 +3757,22 @@
         <v>479</v>
       </c>
       <c r="H40" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I40" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J40">
         <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L40" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M40" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3726,25 +3792,25 @@
         <v>417</v>
       </c>
       <c r="G41" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H41" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I41" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J41">
         <v>18</v>
       </c>
       <c r="K41" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L41" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M41" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3764,25 +3830,25 @@
         <v>418</v>
       </c>
       <c r="G42" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H42" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I42" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J42">
         <v>11</v>
       </c>
       <c r="K42" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L42" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M42" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3805,25 +3871,25 @@
         <v>479</v>
       </c>
       <c r="H43" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I43" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="J43">
         <v>11</v>
       </c>
       <c r="K43" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L43" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M43" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N43" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3846,22 +3912,22 @@
         <v>477</v>
       </c>
       <c r="H44" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I44" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="J44">
         <v>11</v>
       </c>
       <c r="K44" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L44" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M44" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3884,25 +3950,25 @@
         <v>479</v>
       </c>
       <c r="H45" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I45" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J45">
         <v>11</v>
       </c>
       <c r="K45" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L45" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M45" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="N45" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3928,22 +3994,22 @@
         <v>477</v>
       </c>
       <c r="H46" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I46" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J46">
         <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L46" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M46" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3966,25 +4032,25 @@
         <v>418</v>
       </c>
       <c r="G47" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H47" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I47" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J47">
         <v>11</v>
       </c>
       <c r="K47" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L47" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M47" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -4010,25 +4076,25 @@
         <v>479</v>
       </c>
       <c r="H48" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I48" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J48">
         <v>11</v>
       </c>
       <c r="K48" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L48" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M48" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N48" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -4054,22 +4120,22 @@
         <v>477</v>
       </c>
       <c r="H49" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I49" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J49">
         <v>11</v>
       </c>
       <c r="K49" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L49" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M49" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4095,25 +4161,25 @@
         <v>479</v>
       </c>
       <c r="H50" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I50" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J50">
         <v>11</v>
       </c>
       <c r="K50" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L50" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M50" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="N50" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -4135,8 +4201,20 @@
       <c r="F51" t="s">
         <v>420</v>
       </c>
+      <c r="G51" t="s">
+        <v>480</v>
+      </c>
       <c r="J51">
         <v>22</v>
+      </c>
+      <c r="K51" t="s">
+        <v>480</v>
+      </c>
+      <c r="L51" t="s">
+        <v>480</v>
+      </c>
+      <c r="M51" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -4158,8 +4236,20 @@
       <c r="F52" t="s">
         <v>417</v>
       </c>
+      <c r="G52" t="s">
+        <v>480</v>
+      </c>
       <c r="J52">
         <v>22</v>
+      </c>
+      <c r="K52" t="s">
+        <v>480</v>
+      </c>
+      <c r="L52" t="s">
+        <v>480</v>
+      </c>
+      <c r="M52" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -4185,25 +4275,25 @@
         <v>479</v>
       </c>
       <c r="H53" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I53" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L53" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M53" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="N53" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -4229,22 +4319,22 @@
         <v>477</v>
       </c>
       <c r="H54" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I54" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J54">
         <v>22</v>
       </c>
       <c r="K54" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L54" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M54" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -4266,11 +4356,23 @@
       <c r="F55" t="s">
         <v>417</v>
       </c>
+      <c r="G55" t="s">
+        <v>480</v>
+      </c>
       <c r="J55">
         <v>22</v>
       </c>
+      <c r="K55" t="s">
+        <v>480</v>
+      </c>
+      <c r="L55" t="s">
+        <v>480</v>
+      </c>
+      <c r="M55" t="s">
+        <v>480</v>
+      </c>
       <c r="N55" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -4296,22 +4398,22 @@
         <v>479</v>
       </c>
       <c r="H56" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I56" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J56">
         <v>22</v>
       </c>
       <c r="K56" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L56" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M56" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -4334,25 +4436,25 @@
         <v>418</v>
       </c>
       <c r="G57" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H57" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I57" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J57">
         <v>11</v>
       </c>
       <c r="K57" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L57" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M57" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -4378,25 +4480,25 @@
         <v>479</v>
       </c>
       <c r="H58" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I58" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J58">
         <v>11</v>
       </c>
       <c r="K58" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L58" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M58" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N58" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -4422,22 +4524,22 @@
         <v>477</v>
       </c>
       <c r="H59" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I59" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J59">
         <v>11</v>
       </c>
       <c r="K59" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L59" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M59" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -4463,25 +4565,25 @@
         <v>479</v>
       </c>
       <c r="H60" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I60" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J60">
         <v>11</v>
       </c>
       <c r="K60" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L60" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M60" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="N60" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -4507,22 +4609,22 @@
         <v>477</v>
       </c>
       <c r="H61" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I61" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J61">
         <v>25</v>
       </c>
       <c r="K61" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L61" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M61" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4548,22 +4650,22 @@
         <v>477</v>
       </c>
       <c r="H62" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I62" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J62">
         <v>25</v>
       </c>
       <c r="K62" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L62" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M62" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4585,8 +4687,20 @@
       <c r="F63" t="s">
         <v>423</v>
       </c>
+      <c r="G63" t="s">
+        <v>480</v>
+      </c>
       <c r="J63">
         <v>25</v>
+      </c>
+      <c r="K63" t="s">
+        <v>480</v>
+      </c>
+      <c r="L63" t="s">
+        <v>480</v>
+      </c>
+      <c r="M63" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4609,25 +4723,25 @@
         <v>424</v>
       </c>
       <c r="G64" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H64" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I64" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J64">
         <v>25</v>
       </c>
       <c r="K64" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L64" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M64" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4650,25 +4764,25 @@
         <v>425</v>
       </c>
       <c r="G65" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H65" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I65" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J65">
         <v>25</v>
       </c>
       <c r="K65" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L65" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M65" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4694,22 +4808,22 @@
         <v>479</v>
       </c>
       <c r="H66" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I66" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J66">
         <v>25</v>
       </c>
       <c r="K66" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L66" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M66" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4735,22 +4849,22 @@
         <v>479</v>
       </c>
       <c r="H67" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I67" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J67">
         <v>25</v>
       </c>
       <c r="K67" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L67" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M67" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4776,25 +4890,25 @@
         <v>477</v>
       </c>
       <c r="H68" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I68" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J68">
         <v>25</v>
       </c>
       <c r="K68" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L68" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M68" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="N68" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4814,25 +4928,25 @@
         <v>420</v>
       </c>
       <c r="G69" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H69" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I69" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J69">
         <v>22</v>
       </c>
       <c r="K69" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L69" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M69" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4858,22 +4972,22 @@
         <v>479</v>
       </c>
       <c r="H70" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I70" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J70">
         <v>22</v>
       </c>
       <c r="K70" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L70" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M70" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4899,22 +5013,22 @@
         <v>477</v>
       </c>
       <c r="H71" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I71" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J71">
         <v>22</v>
       </c>
       <c r="K71" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L71" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M71" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4936,8 +5050,20 @@
       <c r="F72" t="s">
         <v>421</v>
       </c>
+      <c r="G72" t="s">
+        <v>480</v>
+      </c>
       <c r="J72">
         <v>22</v>
+      </c>
+      <c r="K72" t="s">
+        <v>480</v>
+      </c>
+      <c r="L72" t="s">
+        <v>480</v>
+      </c>
+      <c r="M72" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4959,8 +5085,20 @@
       <c r="F73" t="s">
         <v>426</v>
       </c>
+      <c r="G73" t="s">
+        <v>480</v>
+      </c>
       <c r="J73">
         <v>22</v>
+      </c>
+      <c r="K73" t="s">
+        <v>480</v>
+      </c>
+      <c r="L73" t="s">
+        <v>480</v>
+      </c>
+      <c r="M73" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4983,25 +5121,25 @@
         <v>477</v>
       </c>
       <c r="H74" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I74" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J74">
         <v>22</v>
       </c>
       <c r="K74" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L74" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M74" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N74" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -5023,8 +5161,20 @@
       <c r="F75" t="s">
         <v>420</v>
       </c>
+      <c r="G75" t="s">
+        <v>480</v>
+      </c>
       <c r="J75">
         <v>22</v>
+      </c>
+      <c r="K75" t="s">
+        <v>480</v>
+      </c>
+      <c r="L75" t="s">
+        <v>480</v>
+      </c>
+      <c r="M75" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -5047,25 +5197,25 @@
         <v>425</v>
       </c>
       <c r="G76" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H76" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I76" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J76">
         <v>22</v>
       </c>
       <c r="K76" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L76" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M76" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -5087,8 +5237,20 @@
       <c r="F77" t="s">
         <v>426</v>
       </c>
+      <c r="G77" t="s">
+        <v>480</v>
+      </c>
       <c r="J77">
         <v>22</v>
+      </c>
+      <c r="K77" t="s">
+        <v>480</v>
+      </c>
+      <c r="L77" t="s">
+        <v>480</v>
+      </c>
+      <c r="M77" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -5114,22 +5276,22 @@
         <v>479</v>
       </c>
       <c r="H78" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I78" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J78">
         <v>18</v>
       </c>
       <c r="K78" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L78" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M78" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -5155,22 +5317,22 @@
         <v>479</v>
       </c>
       <c r="H79" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I79" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J79">
         <v>22</v>
       </c>
       <c r="K79" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L79" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M79" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -5196,22 +5358,22 @@
         <v>479</v>
       </c>
       <c r="H80" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I80" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J80">
         <v>25</v>
       </c>
       <c r="K80" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L80" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M80" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -5237,25 +5399,25 @@
         <v>479</v>
       </c>
       <c r="H81" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I81" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L81" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M81" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="N81" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -5281,22 +5443,22 @@
         <v>479</v>
       </c>
       <c r="H82" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I82" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J82">
         <v>25</v>
       </c>
       <c r="K82" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L82" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M82" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -5319,25 +5481,25 @@
         <v>428</v>
       </c>
       <c r="G83" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H83" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I83" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J83">
         <v>25</v>
       </c>
       <c r="K83" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L83" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M83" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -5360,25 +5522,25 @@
         <v>428</v>
       </c>
       <c r="G84" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H84" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I84" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J84">
         <v>25</v>
       </c>
       <c r="K84" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L84" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M84" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -5404,22 +5566,22 @@
         <v>479</v>
       </c>
       <c r="H85" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I85" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J85">
         <v>25</v>
       </c>
       <c r="K85" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L85" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M85" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5445,22 +5607,22 @@
         <v>479</v>
       </c>
       <c r="H86" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I86" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J86">
         <v>25</v>
       </c>
       <c r="K86" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L86" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M86" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -5486,22 +5648,22 @@
         <v>477</v>
       </c>
       <c r="H87" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I87" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J87">
         <v>25</v>
       </c>
       <c r="K87" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L87" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M87" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -5523,8 +5685,20 @@
       <c r="F88" t="s">
         <v>428</v>
       </c>
+      <c r="G88" t="s">
+        <v>480</v>
+      </c>
       <c r="J88">
         <v>25</v>
+      </c>
+      <c r="K88" t="s">
+        <v>480</v>
+      </c>
+      <c r="L88" t="s">
+        <v>480</v>
+      </c>
+      <c r="M88" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5550,22 +5724,22 @@
         <v>477</v>
       </c>
       <c r="H89" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I89" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J89">
         <v>25</v>
       </c>
       <c r="K89" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L89" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M89" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -5591,22 +5765,22 @@
         <v>479</v>
       </c>
       <c r="H90" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I90" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J90">
         <v>25</v>
       </c>
       <c r="K90" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L90" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M90" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5628,11 +5802,23 @@
       <c r="F91" t="s">
         <v>428</v>
       </c>
+      <c r="G91" t="s">
+        <v>480</v>
+      </c>
       <c r="J91">
         <v>25</v>
       </c>
+      <c r="K91" t="s">
+        <v>480</v>
+      </c>
+      <c r="L91" t="s">
+        <v>480</v>
+      </c>
+      <c r="M91" t="s">
+        <v>480</v>
+      </c>
       <c r="N91" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -5654,8 +5840,20 @@
       <c r="F92" t="s">
         <v>430</v>
       </c>
+      <c r="G92" t="s">
+        <v>480</v>
+      </c>
       <c r="J92">
         <v>25</v>
+      </c>
+      <c r="K92" t="s">
+        <v>480</v>
+      </c>
+      <c r="L92" t="s">
+        <v>480</v>
+      </c>
+      <c r="M92" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -5681,22 +5879,22 @@
         <v>477</v>
       </c>
       <c r="H93" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I93" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J93">
         <v>25</v>
       </c>
       <c r="K93" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L93" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M93" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5722,22 +5920,22 @@
         <v>478</v>
       </c>
       <c r="H94" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I94" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J94">
         <v>25</v>
       </c>
       <c r="K94" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L94" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M94" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5763,22 +5961,22 @@
         <v>479</v>
       </c>
       <c r="H95" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I95" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J95">
         <v>25</v>
       </c>
       <c r="K95" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L95" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M95" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5804,22 +6002,22 @@
         <v>479</v>
       </c>
       <c r="H96" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I96" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J96">
         <v>25</v>
       </c>
       <c r="K96" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L96" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M96" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5842,22 +6040,22 @@
         <v>477</v>
       </c>
       <c r="H97" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I97" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J97">
         <v>17</v>
       </c>
       <c r="K97" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L97" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M97" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5879,8 +6077,20 @@
       <c r="F98" t="s">
         <v>431</v>
       </c>
+      <c r="G98" t="s">
+        <v>480</v>
+      </c>
       <c r="J98">
         <v>25</v>
+      </c>
+      <c r="K98" t="s">
+        <v>480</v>
+      </c>
+      <c r="L98" t="s">
+        <v>480</v>
+      </c>
+      <c r="M98" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5906,22 +6116,22 @@
         <v>477</v>
       </c>
       <c r="H99" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I99" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J99">
         <v>25</v>
       </c>
       <c r="K99" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L99" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M99" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5947,22 +6157,22 @@
         <v>479</v>
       </c>
       <c r="H100" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I100" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J100">
         <v>25</v>
       </c>
       <c r="K100" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L100" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M100" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5988,22 +6198,22 @@
         <v>479</v>
       </c>
       <c r="H101" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I101" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J101">
         <v>22</v>
       </c>
       <c r="K101" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L101" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M101" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -6029,22 +6239,22 @@
         <v>477</v>
       </c>
       <c r="H102" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I102" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J102">
         <v>18</v>
       </c>
       <c r="K102" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L102" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M102" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -6070,22 +6280,22 @@
         <v>479</v>
       </c>
       <c r="H103" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I103" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J103">
         <v>18</v>
       </c>
       <c r="K103" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L103" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M103" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -6111,22 +6321,22 @@
         <v>477</v>
       </c>
       <c r="H104" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I104" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J104">
         <v>25</v>
       </c>
       <c r="K104" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L104" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M104" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -6148,11 +6358,23 @@
       <c r="F105" t="s">
         <v>434</v>
       </c>
+      <c r="G105" t="s">
+        <v>480</v>
+      </c>
       <c r="J105">
         <v>25</v>
       </c>
+      <c r="K105" t="s">
+        <v>480</v>
+      </c>
+      <c r="L105" t="s">
+        <v>480</v>
+      </c>
+      <c r="M105" t="s">
+        <v>480</v>
+      </c>
       <c r="N105" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6174,11 +6396,23 @@
       <c r="F106" t="s">
         <v>435</v>
       </c>
+      <c r="G106" t="s">
+        <v>480</v>
+      </c>
       <c r="J106">
         <v>25</v>
       </c>
+      <c r="K106" t="s">
+        <v>480</v>
+      </c>
+      <c r="L106" t="s">
+        <v>480</v>
+      </c>
+      <c r="M106" t="s">
+        <v>480</v>
+      </c>
       <c r="N106" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -6201,22 +6435,22 @@
         <v>477</v>
       </c>
       <c r="H107" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I107" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J107">
         <v>16</v>
       </c>
       <c r="K107" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L107" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M107" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6242,22 +6476,22 @@
         <v>479</v>
       </c>
       <c r="H108" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I108" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J108">
         <v>16</v>
       </c>
       <c r="K108" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L108" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M108" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6280,25 +6514,25 @@
         <v>436</v>
       </c>
       <c r="G109" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H109" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I109" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="J109">
         <v>25</v>
       </c>
       <c r="K109" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L109" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M109" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6324,22 +6558,22 @@
         <v>479</v>
       </c>
       <c r="H110" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I110" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J110">
         <v>25</v>
       </c>
       <c r="K110" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L110" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M110" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6365,22 +6599,22 @@
         <v>479</v>
       </c>
       <c r="H111" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I111" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J111">
         <v>25</v>
       </c>
       <c r="K111" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L111" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M111" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6403,25 +6637,25 @@
         <v>408</v>
       </c>
       <c r="G112" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H112" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I112" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J112">
         <v>25</v>
       </c>
       <c r="K112" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L112" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M112" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -6447,22 +6681,22 @@
         <v>477</v>
       </c>
       <c r="H113" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I113" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J113">
         <v>25</v>
       </c>
       <c r="K113" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L113" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M113" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6484,8 +6718,20 @@
       <c r="F114" t="s">
         <v>438</v>
       </c>
+      <c r="G114" t="s">
+        <v>480</v>
+      </c>
       <c r="J114">
         <v>25</v>
+      </c>
+      <c r="K114" t="s">
+        <v>480</v>
+      </c>
+      <c r="L114" t="s">
+        <v>480</v>
+      </c>
+      <c r="M114" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6507,11 +6753,23 @@
       <c r="F115" t="s">
         <v>438</v>
       </c>
+      <c r="G115" t="s">
+        <v>480</v>
+      </c>
       <c r="J115">
         <v>25</v>
       </c>
+      <c r="K115" t="s">
+        <v>480</v>
+      </c>
+      <c r="L115" t="s">
+        <v>480</v>
+      </c>
+      <c r="M115" t="s">
+        <v>480</v>
+      </c>
       <c r="N115" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6533,8 +6791,20 @@
       <c r="F116" t="s">
         <v>439</v>
       </c>
+      <c r="G116" t="s">
+        <v>480</v>
+      </c>
       <c r="J116">
         <v>25</v>
+      </c>
+      <c r="K116" t="s">
+        <v>480</v>
+      </c>
+      <c r="L116" t="s">
+        <v>480</v>
+      </c>
+      <c r="M116" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6557,25 +6827,25 @@
         <v>440</v>
       </c>
       <c r="G117" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H117" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I117" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J117">
         <v>22</v>
       </c>
       <c r="K117" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L117" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M117" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6597,11 +6867,23 @@
       <c r="F118" t="s">
         <v>408</v>
       </c>
+      <c r="G118" t="s">
+        <v>480</v>
+      </c>
       <c r="J118">
         <v>0</v>
       </c>
+      <c r="K118" t="s">
+        <v>480</v>
+      </c>
+      <c r="L118" t="s">
+        <v>480</v>
+      </c>
+      <c r="M118" t="s">
+        <v>480</v>
+      </c>
       <c r="N118" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6623,8 +6905,20 @@
       <c r="F119" t="s">
         <v>441</v>
       </c>
+      <c r="G119" t="s">
+        <v>480</v>
+      </c>
       <c r="J119">
         <v>25</v>
+      </c>
+      <c r="K119" t="s">
+        <v>480</v>
+      </c>
+      <c r="L119" t="s">
+        <v>480</v>
+      </c>
+      <c r="M119" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6646,8 +6940,20 @@
       <c r="F120" t="s">
         <v>441</v>
       </c>
+      <c r="G120" t="s">
+        <v>480</v>
+      </c>
       <c r="J120">
         <v>25</v>
+      </c>
+      <c r="K120" t="s">
+        <v>480</v>
+      </c>
+      <c r="L120" t="s">
+        <v>480</v>
+      </c>
+      <c r="M120" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6669,8 +6975,20 @@
       <c r="F121" t="s">
         <v>439</v>
       </c>
+      <c r="G121" t="s">
+        <v>480</v>
+      </c>
       <c r="J121">
         <v>25</v>
+      </c>
+      <c r="K121" t="s">
+        <v>480</v>
+      </c>
+      <c r="L121" t="s">
+        <v>480</v>
+      </c>
+      <c r="M121" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6690,25 +7008,25 @@
         <v>439</v>
       </c>
       <c r="G122" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H122" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I122" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J122">
         <v>25</v>
       </c>
       <c r="K122" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L122" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M122" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6730,8 +7048,20 @@
       <c r="F123" t="s">
         <v>441</v>
       </c>
+      <c r="G123" t="s">
+        <v>480</v>
+      </c>
       <c r="J123">
         <v>25</v>
+      </c>
+      <c r="K123" t="s">
+        <v>480</v>
+      </c>
+      <c r="L123" t="s">
+        <v>480</v>
+      </c>
+      <c r="M123" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6753,8 +7083,20 @@
       <c r="F124" t="s">
         <v>440</v>
       </c>
+      <c r="G124" t="s">
+        <v>480</v>
+      </c>
       <c r="J124">
         <v>25</v>
+      </c>
+      <c r="K124" t="s">
+        <v>480</v>
+      </c>
+      <c r="L124" t="s">
+        <v>480</v>
+      </c>
+      <c r="M124" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6776,8 +7118,20 @@
       <c r="F125" t="s">
         <v>442</v>
       </c>
+      <c r="G125" t="s">
+        <v>480</v>
+      </c>
       <c r="J125">
         <v>25</v>
+      </c>
+      <c r="K125" t="s">
+        <v>480</v>
+      </c>
+      <c r="L125" t="s">
+        <v>480</v>
+      </c>
+      <c r="M125" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6803,22 +7157,22 @@
         <v>479</v>
       </c>
       <c r="H126" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I126" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J126">
         <v>25</v>
       </c>
       <c r="K126" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L126" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M126" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6840,8 +7194,20 @@
       <c r="F127" t="s">
         <v>444</v>
       </c>
+      <c r="G127" t="s">
+        <v>480</v>
+      </c>
       <c r="J127">
         <v>25</v>
+      </c>
+      <c r="K127" t="s">
+        <v>480</v>
+      </c>
+      <c r="L127" t="s">
+        <v>480</v>
+      </c>
+      <c r="M127" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6863,8 +7229,20 @@
       <c r="F128" t="s">
         <v>445</v>
       </c>
+      <c r="G128" t="s">
+        <v>480</v>
+      </c>
       <c r="J128">
         <v>25</v>
+      </c>
+      <c r="K128" t="s">
+        <v>480</v>
+      </c>
+      <c r="L128" t="s">
+        <v>480</v>
+      </c>
+      <c r="M128" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6890,22 +7268,22 @@
         <v>479</v>
       </c>
       <c r="H129" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I129" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J129">
         <v>25</v>
       </c>
       <c r="K129" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L129" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M129" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6931,22 +7309,22 @@
         <v>479</v>
       </c>
       <c r="H130" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I130" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J130">
         <v>25</v>
       </c>
       <c r="K130" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L130" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M130" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6972,22 +7350,22 @@
         <v>477</v>
       </c>
       <c r="H131" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I131" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J131">
         <v>18</v>
       </c>
       <c r="K131" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L131" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M131" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -7013,22 +7391,22 @@
         <v>478</v>
       </c>
       <c r="H132" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I132" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J132">
         <v>18</v>
       </c>
       <c r="K132" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L132" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M132" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -7048,25 +7426,25 @@
         <v>419</v>
       </c>
       <c r="G133" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H133" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I133" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="J133">
         <v>18</v>
       </c>
       <c r="K133" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L133" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M133" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -7092,22 +7470,22 @@
         <v>479</v>
       </c>
       <c r="H134" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I134" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J134">
         <v>18</v>
       </c>
       <c r="K134" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L134" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M134" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -7133,22 +7511,22 @@
         <v>477</v>
       </c>
       <c r="H135" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I135" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J135">
         <v>18</v>
       </c>
       <c r="K135" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L135" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M135" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -7168,25 +7546,25 @@
         <v>419</v>
       </c>
       <c r="G136" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H136" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I136" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J136">
         <v>18</v>
       </c>
       <c r="K136" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L136" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M136" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -7208,8 +7586,20 @@
       <c r="F137" t="s">
         <v>446</v>
       </c>
+      <c r="G137" t="s">
+        <v>480</v>
+      </c>
       <c r="J137">
         <v>25</v>
+      </c>
+      <c r="K137" t="s">
+        <v>562</v>
+      </c>
+      <c r="L137" t="s">
+        <v>562</v>
+      </c>
+      <c r="M137" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -7235,22 +7625,22 @@
         <v>477</v>
       </c>
       <c r="H138" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I138" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J138">
         <v>25</v>
       </c>
       <c r="K138" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L138" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M138" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -7276,22 +7666,22 @@
         <v>479</v>
       </c>
       <c r="H139" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I139" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J139">
         <v>25</v>
       </c>
       <c r="K139" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L139" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M139" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -7313,8 +7703,20 @@
       <c r="F140" t="s">
         <v>448</v>
       </c>
+      <c r="G140" t="s">
+        <v>480</v>
+      </c>
       <c r="J140">
         <v>25</v>
+      </c>
+      <c r="K140" t="s">
+        <v>562</v>
+      </c>
+      <c r="L140" t="s">
+        <v>562</v>
+      </c>
+      <c r="M140" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -7340,22 +7742,22 @@
         <v>479</v>
       </c>
       <c r="H141" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I141" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J141">
         <v>25</v>
       </c>
       <c r="K141" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L141" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M141" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -7377,8 +7779,20 @@
       <c r="F142" t="s">
         <v>449</v>
       </c>
+      <c r="G142" t="s">
+        <v>480</v>
+      </c>
       <c r="J142">
         <v>25</v>
+      </c>
+      <c r="K142" t="s">
+        <v>562</v>
+      </c>
+      <c r="L142" t="s">
+        <v>562</v>
+      </c>
+      <c r="M142" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -7400,8 +7814,20 @@
       <c r="F143" t="s">
         <v>408</v>
       </c>
+      <c r="G143" t="s">
+        <v>480</v>
+      </c>
       <c r="J143">
         <v>25</v>
+      </c>
+      <c r="K143" t="s">
+        <v>562</v>
+      </c>
+      <c r="L143" t="s">
+        <v>562</v>
+      </c>
+      <c r="M143" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -7423,8 +7849,20 @@
       <c r="F144" t="s">
         <v>431</v>
       </c>
+      <c r="G144" t="s">
+        <v>480</v>
+      </c>
       <c r="J144">
         <v>25</v>
+      </c>
+      <c r="K144" t="s">
+        <v>562</v>
+      </c>
+      <c r="L144" t="s">
+        <v>562</v>
+      </c>
+      <c r="M144" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -7446,8 +7884,20 @@
       <c r="F145" t="s">
         <v>449</v>
       </c>
+      <c r="G145" t="s">
+        <v>480</v>
+      </c>
       <c r="J145">
         <v>25</v>
+      </c>
+      <c r="K145" t="s">
+        <v>562</v>
+      </c>
+      <c r="L145" t="s">
+        <v>562</v>
+      </c>
+      <c r="M145" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -7473,22 +7923,22 @@
         <v>477</v>
       </c>
       <c r="H146" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I146" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J146">
         <v>25</v>
       </c>
       <c r="K146" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L146" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M146" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -7514,22 +7964,22 @@
         <v>477</v>
       </c>
       <c r="H147" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I147" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J147">
         <v>25</v>
       </c>
       <c r="K147" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L147" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M147" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -7551,8 +8001,20 @@
       <c r="F148" t="s">
         <v>450</v>
       </c>
+      <c r="G148" t="s">
+        <v>480</v>
+      </c>
       <c r="J148">
         <v>25</v>
+      </c>
+      <c r="K148" t="s">
+        <v>562</v>
+      </c>
+      <c r="L148" t="s">
+        <v>562</v>
+      </c>
+      <c r="M148" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -7574,8 +8036,20 @@
       <c r="F149" t="s">
         <v>447</v>
       </c>
+      <c r="G149" t="s">
+        <v>480</v>
+      </c>
       <c r="J149">
         <v>25</v>
+      </c>
+      <c r="K149" t="s">
+        <v>562</v>
+      </c>
+      <c r="L149" t="s">
+        <v>562</v>
+      </c>
+      <c r="M149" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -7595,25 +8069,25 @@
         <v>447</v>
       </c>
       <c r="G150" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H150" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I150" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J150">
         <v>25</v>
       </c>
       <c r="K150" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L150" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M150" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -7635,8 +8109,20 @@
       <c r="F151" t="s">
         <v>451</v>
       </c>
+      <c r="G151" t="s">
+        <v>480</v>
+      </c>
       <c r="J151">
         <v>25</v>
+      </c>
+      <c r="K151" t="s">
+        <v>562</v>
+      </c>
+      <c r="L151" t="s">
+        <v>562</v>
+      </c>
+      <c r="M151" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -7658,8 +8144,20 @@
       <c r="F152" t="s">
         <v>408</v>
       </c>
+      <c r="G152" t="s">
+        <v>480</v>
+      </c>
       <c r="J152">
         <v>24</v>
+      </c>
+      <c r="K152" t="s">
+        <v>562</v>
+      </c>
+      <c r="L152" t="s">
+        <v>562</v>
+      </c>
+      <c r="M152" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -7685,22 +8183,22 @@
         <v>477</v>
       </c>
       <c r="H153" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I153" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J153">
         <v>24</v>
       </c>
       <c r="K153" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L153" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M153" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -7722,8 +8220,20 @@
       <c r="F154" t="s">
         <v>444</v>
       </c>
+      <c r="G154" t="s">
+        <v>480</v>
+      </c>
       <c r="J154">
         <v>22</v>
+      </c>
+      <c r="K154" t="s">
+        <v>562</v>
+      </c>
+      <c r="L154" t="s">
+        <v>562</v>
+      </c>
+      <c r="M154" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -7743,28 +8253,28 @@
         <v>452</v>
       </c>
       <c r="G155" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H155" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I155" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J155">
         <v>17</v>
       </c>
       <c r="K155" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L155" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M155" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="N155" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -7787,22 +8297,22 @@
         <v>478</v>
       </c>
       <c r="H156" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I156" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J156">
         <v>20</v>
       </c>
       <c r="K156" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L156" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M156" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -7822,28 +8332,28 @@
         <v>452</v>
       </c>
       <c r="G157" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H157" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I157" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="J157">
         <v>16</v>
       </c>
       <c r="K157" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L157" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M157" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="N157" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -7863,28 +8373,28 @@
         <v>452</v>
       </c>
       <c r="G158" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="I158" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J158">
         <v>24</v>
       </c>
       <c r="K158" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L158" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M158" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="N158" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -7904,25 +8414,25 @@
         <v>454</v>
       </c>
       <c r="G159" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H159" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I159" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J159">
         <v>30</v>
       </c>
       <c r="K159" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L159" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M159" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -7942,25 +8452,25 @@
         <v>452</v>
       </c>
       <c r="G160" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H160" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I160" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="J160">
         <v>16</v>
       </c>
       <c r="K160" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L160" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M160" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -7980,25 +8490,25 @@
         <v>453</v>
       </c>
       <c r="G161" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H161" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I161" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="J161">
         <v>16</v>
       </c>
       <c r="K161" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L161" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M161" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -8018,25 +8528,25 @@
         <v>453</v>
       </c>
       <c r="G162" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H162" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I162" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J162">
         <v>16</v>
       </c>
       <c r="K162" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L162" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M162" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -8056,25 +8566,25 @@
         <v>455</v>
       </c>
       <c r="G163" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H163" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I163" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J163">
         <v>25</v>
       </c>
       <c r="K163" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L163" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M163" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -8096,8 +8606,20 @@
       <c r="F164" t="s">
         <v>456</v>
       </c>
+      <c r="G164" t="s">
+        <v>480</v>
+      </c>
       <c r="J164">
         <v>25</v>
+      </c>
+      <c r="K164" t="s">
+        <v>562</v>
+      </c>
+      <c r="L164" t="s">
+        <v>562</v>
+      </c>
+      <c r="M164" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -8123,22 +8645,22 @@
         <v>478</v>
       </c>
       <c r="H165" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I165" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J165">
         <v>25</v>
       </c>
       <c r="K165" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L165" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M165" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -8164,22 +8686,22 @@
         <v>477</v>
       </c>
       <c r="H166" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I166" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J166">
         <v>25</v>
       </c>
       <c r="K166" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L166" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M166" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -8205,22 +8727,22 @@
         <v>479</v>
       </c>
       <c r="H167" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I167" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J167">
         <v>22</v>
       </c>
       <c r="K167" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L167" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M167" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -8243,25 +8765,25 @@
         <v>457</v>
       </c>
       <c r="G168" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H168" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I168" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J168">
         <v>22</v>
       </c>
       <c r="K168" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L168" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M168" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -8287,22 +8809,22 @@
         <v>477</v>
       </c>
       <c r="H169" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I169" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J169">
         <v>22</v>
       </c>
       <c r="K169" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L169" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M169" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -8328,22 +8850,22 @@
         <v>479</v>
       </c>
       <c r="H170" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I170" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J170">
         <v>22</v>
       </c>
       <c r="K170" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L170" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M170" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -8369,22 +8891,22 @@
         <v>477</v>
       </c>
       <c r="H171" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I171" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J171">
         <v>25</v>
       </c>
       <c r="K171" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L171" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M171" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -8410,22 +8932,22 @@
         <v>477</v>
       </c>
       <c r="H172" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I172" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J172">
         <v>25</v>
       </c>
       <c r="K172" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L172" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M172" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -8451,22 +8973,22 @@
         <v>479</v>
       </c>
       <c r="H173" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I173" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J173">
         <v>25</v>
       </c>
       <c r="K173" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L173" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M173" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8488,8 +9010,20 @@
       <c r="F174" t="s">
         <v>459</v>
       </c>
+      <c r="G174" t="s">
+        <v>480</v>
+      </c>
       <c r="J174">
         <v>25</v>
+      </c>
+      <c r="K174" t="s">
+        <v>562</v>
+      </c>
+      <c r="L174" t="s">
+        <v>562</v>
+      </c>
+      <c r="M174" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8515,22 +9049,22 @@
         <v>479</v>
       </c>
       <c r="H175" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I175" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J175">
         <v>25</v>
       </c>
       <c r="K175" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L175" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M175" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8552,8 +9086,20 @@
       <c r="F176" t="s">
         <v>460</v>
       </c>
+      <c r="G176" t="s">
+        <v>480</v>
+      </c>
       <c r="J176">
         <v>25</v>
+      </c>
+      <c r="K176" t="s">
+        <v>561</v>
+      </c>
+      <c r="L176" t="s">
+        <v>562</v>
+      </c>
+      <c r="M176" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8579,22 +9125,22 @@
         <v>479</v>
       </c>
       <c r="H177" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I177" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J177">
         <v>24</v>
       </c>
       <c r="K177" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L177" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M177" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8620,22 +9166,22 @@
         <v>479</v>
       </c>
       <c r="H178" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I178" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J178">
         <v>24</v>
       </c>
       <c r="K178" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L178" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M178" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8657,8 +9203,20 @@
       <c r="F179" t="s">
         <v>462</v>
       </c>
+      <c r="G179" t="s">
+        <v>480</v>
+      </c>
       <c r="J179">
         <v>24</v>
+      </c>
+      <c r="K179" t="s">
+        <v>562</v>
+      </c>
+      <c r="L179" t="s">
+        <v>562</v>
+      </c>
+      <c r="M179" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8680,8 +9238,20 @@
       <c r="F180" t="s">
         <v>462</v>
       </c>
+      <c r="G180" t="s">
+        <v>480</v>
+      </c>
       <c r="J180">
         <v>24</v>
+      </c>
+      <c r="K180" t="s">
+        <v>562</v>
+      </c>
+      <c r="L180" t="s">
+        <v>562</v>
+      </c>
+      <c r="M180" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8703,8 +9273,20 @@
       <c r="F181" t="s">
         <v>462</v>
       </c>
+      <c r="G181" t="s">
+        <v>480</v>
+      </c>
       <c r="J181">
         <v>24</v>
+      </c>
+      <c r="K181" t="s">
+        <v>562</v>
+      </c>
+      <c r="L181" t="s">
+        <v>562</v>
+      </c>
+      <c r="M181" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8730,22 +9312,22 @@
         <v>477</v>
       </c>
       <c r="H182" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I182" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J182">
         <v>24</v>
       </c>
       <c r="K182" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L182" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M182" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8767,8 +9349,20 @@
       <c r="F183" t="s">
         <v>458</v>
       </c>
+      <c r="G183" t="s">
+        <v>480</v>
+      </c>
       <c r="J183">
         <v>24</v>
+      </c>
+      <c r="K183" t="s">
+        <v>562</v>
+      </c>
+      <c r="L183" t="s">
+        <v>562</v>
+      </c>
+      <c r="M183" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -8790,8 +9384,20 @@
       <c r="F184" t="s">
         <v>458</v>
       </c>
+      <c r="G184" t="s">
+        <v>480</v>
+      </c>
       <c r="J184">
         <v>25</v>
+      </c>
+      <c r="K184" t="s">
+        <v>562</v>
+      </c>
+      <c r="L184" t="s">
+        <v>562</v>
+      </c>
+      <c r="M184" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -8813,8 +9419,20 @@
       <c r="F185" t="s">
         <v>458</v>
       </c>
+      <c r="G185" t="s">
+        <v>480</v>
+      </c>
       <c r="J185">
         <v>24</v>
+      </c>
+      <c r="K185" t="s">
+        <v>562</v>
+      </c>
+      <c r="L185" t="s">
+        <v>562</v>
+      </c>
+      <c r="M185" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -8836,8 +9454,20 @@
       <c r="F186" t="s">
         <v>463</v>
       </c>
+      <c r="G186" t="s">
+        <v>480</v>
+      </c>
       <c r="J186">
         <v>20</v>
+      </c>
+      <c r="K186" t="s">
+        <v>562</v>
+      </c>
+      <c r="L186" t="s">
+        <v>562</v>
+      </c>
+      <c r="M186" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -8859,8 +9489,20 @@
       <c r="F187" t="s">
         <v>463</v>
       </c>
+      <c r="G187" t="s">
+        <v>480</v>
+      </c>
       <c r="J187">
         <v>20</v>
+      </c>
+      <c r="K187" t="s">
+        <v>562</v>
+      </c>
+      <c r="L187" t="s">
+        <v>562</v>
+      </c>
+      <c r="M187" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -8882,8 +9524,20 @@
       <c r="F188" t="s">
         <v>463</v>
       </c>
+      <c r="G188" t="s">
+        <v>480</v>
+      </c>
       <c r="J188">
         <v>20</v>
+      </c>
+      <c r="K188" t="s">
+        <v>562</v>
+      </c>
+      <c r="L188" t="s">
+        <v>562</v>
+      </c>
+      <c r="M188" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -8905,8 +9559,20 @@
       <c r="F189" t="s">
         <v>463</v>
       </c>
+      <c r="G189" t="s">
+        <v>480</v>
+      </c>
       <c r="J189">
         <v>20</v>
+      </c>
+      <c r="K189" t="s">
+        <v>562</v>
+      </c>
+      <c r="L189" t="s">
+        <v>562</v>
+      </c>
+      <c r="M189" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -8928,8 +9594,20 @@
       <c r="F190" t="s">
         <v>463</v>
       </c>
+      <c r="G190" t="s">
+        <v>480</v>
+      </c>
       <c r="J190">
         <v>20</v>
+      </c>
+      <c r="K190" t="s">
+        <v>562</v>
+      </c>
+      <c r="L190" t="s">
+        <v>562</v>
+      </c>
+      <c r="M190" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -8955,22 +9633,22 @@
         <v>477</v>
       </c>
       <c r="H191" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I191" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J191">
         <v>32</v>
       </c>
       <c r="K191" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L191" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M191" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -8993,25 +9671,25 @@
         <v>464</v>
       </c>
       <c r="G192" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H192" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I192" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J192">
         <v>32</v>
       </c>
       <c r="K192" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L192" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M192" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -9034,28 +9712,28 @@
         <v>464</v>
       </c>
       <c r="G193" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H193" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I193" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="J193">
         <v>32</v>
       </c>
       <c r="K193" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L193" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M193" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="N193" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -9077,8 +9755,20 @@
       <c r="F194" t="s">
         <v>464</v>
       </c>
+      <c r="G194" t="s">
+        <v>480</v>
+      </c>
       <c r="J194">
         <v>25</v>
+      </c>
+      <c r="K194" t="s">
+        <v>562</v>
+      </c>
+      <c r="L194" t="s">
+        <v>562</v>
+      </c>
+      <c r="M194" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -9100,8 +9790,20 @@
       <c r="F195" t="s">
         <v>464</v>
       </c>
+      <c r="G195" t="s">
+        <v>480</v>
+      </c>
       <c r="J195">
         <v>25</v>
+      </c>
+      <c r="K195" t="s">
+        <v>562</v>
+      </c>
+      <c r="L195" t="s">
+        <v>562</v>
+      </c>
+      <c r="M195" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -9124,25 +9826,25 @@
         <v>461</v>
       </c>
       <c r="G196" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H196" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I196" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J196">
         <v>25</v>
       </c>
       <c r="K196" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L196" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M196" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -9168,22 +9870,22 @@
         <v>479</v>
       </c>
       <c r="H197" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I197" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J197">
         <v>25</v>
       </c>
       <c r="K197" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L197" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M197" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -9205,8 +9907,20 @@
       <c r="F198" t="s">
         <v>462</v>
       </c>
+      <c r="G198" t="s">
+        <v>480</v>
+      </c>
       <c r="J198">
         <v>25</v>
+      </c>
+      <c r="K198" t="s">
+        <v>562</v>
+      </c>
+      <c r="L198" t="s">
+        <v>562</v>
+      </c>
+      <c r="M198" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -9229,25 +9943,25 @@
         <v>462</v>
       </c>
       <c r="G199" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H199" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I199" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="J199">
         <v>25</v>
       </c>
       <c r="K199" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L199" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M199" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -9273,22 +9987,22 @@
         <v>477</v>
       </c>
       <c r="H200" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I200" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="J200">
         <v>25</v>
       </c>
       <c r="K200" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L200" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M200" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -9311,25 +10025,25 @@
         <v>461</v>
       </c>
       <c r="G201" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H201" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I201" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="J201">
         <v>25</v>
       </c>
       <c r="K201" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L201" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M201" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -9355,22 +10069,22 @@
         <v>477</v>
       </c>
       <c r="H202" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I202" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="J202">
         <v>25</v>
       </c>
       <c r="K202" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L202" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M202" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -9393,25 +10107,25 @@
         <v>462</v>
       </c>
       <c r="G203" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H203" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I203" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J203">
         <v>25</v>
       </c>
       <c r="K203" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L203" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M203" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -9437,22 +10151,22 @@
         <v>477</v>
       </c>
       <c r="H204" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="I204" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J204">
         <v>25</v>
       </c>
       <c r="K204" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L204" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M204" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -9475,25 +10189,25 @@
         <v>461</v>
       </c>
       <c r="G205" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H205" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I205" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="J205">
         <v>25</v>
       </c>
       <c r="K205" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L205" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M205" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -9519,22 +10233,22 @@
         <v>477</v>
       </c>
       <c r="H206" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="I206" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J206">
         <v>25</v>
       </c>
       <c r="K206" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L206" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M206" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -9557,25 +10271,25 @@
         <v>464</v>
       </c>
       <c r="G207" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H207" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I207" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J207">
         <v>25</v>
       </c>
       <c r="K207" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L207" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M207" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -9597,8 +10311,20 @@
       <c r="F208" t="s">
         <v>465</v>
       </c>
+      <c r="G208" t="s">
+        <v>480</v>
+      </c>
       <c r="J208">
         <v>24</v>
+      </c>
+      <c r="K208" t="s">
+        <v>562</v>
+      </c>
+      <c r="L208" t="s">
+        <v>562</v>
+      </c>
+      <c r="M208" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -9618,25 +10344,25 @@
         <v>466</v>
       </c>
       <c r="G209" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H209" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I209" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J209">
         <v>24</v>
       </c>
       <c r="K209" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L209" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M209" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -9659,25 +10385,25 @@
         <v>466</v>
       </c>
       <c r="G210" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H210" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I210" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J210">
         <v>24</v>
       </c>
       <c r="K210" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L210" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M210" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -9700,25 +10426,25 @@
         <v>467</v>
       </c>
       <c r="G211" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H211" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I211" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="J211">
         <v>18</v>
       </c>
       <c r="K211" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L211" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M211" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -9744,22 +10470,22 @@
         <v>478</v>
       </c>
       <c r="H212" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I212" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J212">
         <v>18</v>
       </c>
       <c r="K212" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L212" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M212" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -9785,22 +10511,22 @@
         <v>479</v>
       </c>
       <c r="H213" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I213" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J213">
         <v>18</v>
       </c>
       <c r="K213" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L213" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M213" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -9823,25 +10549,25 @@
         <v>466</v>
       </c>
       <c r="G214" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H214" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I214" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J214">
         <v>18</v>
       </c>
       <c r="K214" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L214" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M214" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -9867,22 +10593,22 @@
         <v>477</v>
       </c>
       <c r="H215" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I215" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J215">
         <v>18</v>
       </c>
       <c r="K215" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L215" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M215" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -9905,25 +10631,25 @@
         <v>468</v>
       </c>
       <c r="G216" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H216" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I216" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="J216">
         <v>18</v>
       </c>
       <c r="K216" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L216" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M216" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -9946,25 +10672,25 @@
         <v>408</v>
       </c>
       <c r="G217" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H217" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I217" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="J217">
         <v>18</v>
       </c>
       <c r="K217" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L217" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M217" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -9990,22 +10716,22 @@
         <v>479</v>
       </c>
       <c r="H218" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I218" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J218">
         <v>18</v>
       </c>
       <c r="K218" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L218" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M218" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -10031,22 +10757,22 @@
         <v>477</v>
       </c>
       <c r="H219" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I219" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J219">
         <v>18</v>
       </c>
       <c r="K219" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L219" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M219" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -10072,22 +10798,22 @@
         <v>478</v>
       </c>
       <c r="H220" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I220" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J220">
         <v>18</v>
       </c>
       <c r="K220" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L220" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M220" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -10109,8 +10835,20 @@
       <c r="F221" t="s">
         <v>469</v>
       </c>
+      <c r="G221" t="s">
+        <v>480</v>
+      </c>
       <c r="J221">
         <v>24</v>
+      </c>
+      <c r="K221" t="s">
+        <v>562</v>
+      </c>
+      <c r="L221" t="s">
+        <v>562</v>
+      </c>
+      <c r="M221" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -10132,11 +10870,23 @@
       <c r="F222" t="s">
         <v>469</v>
       </c>
+      <c r="G222" t="s">
+        <v>480</v>
+      </c>
       <c r="J222">
         <v>24</v>
       </c>
+      <c r="K222" t="s">
+        <v>562</v>
+      </c>
+      <c r="L222" t="s">
+        <v>562</v>
+      </c>
+      <c r="M222" t="s">
+        <v>562</v>
+      </c>
       <c r="N222" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -10159,25 +10909,25 @@
         <v>467</v>
       </c>
       <c r="G223" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H223" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I223" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J223">
         <v>24</v>
       </c>
       <c r="K223" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L223" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M223" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -10200,25 +10950,25 @@
         <v>467</v>
       </c>
       <c r="G224" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H224" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I224" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J224">
         <v>24</v>
       </c>
       <c r="K224" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L224" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M224" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -10244,22 +10994,22 @@
         <v>479</v>
       </c>
       <c r="H225" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I225" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J225">
         <v>24</v>
       </c>
       <c r="K225" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L225" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M225" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -10282,25 +11032,25 @@
         <v>467</v>
       </c>
       <c r="G226" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H226" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I226" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="J226">
         <v>24</v>
       </c>
       <c r="K226" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L226" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M226" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -10326,22 +11076,22 @@
         <v>477</v>
       </c>
       <c r="H227" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I227" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J227">
         <v>24</v>
       </c>
       <c r="K227" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L227" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M227" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10367,22 +11117,22 @@
         <v>478</v>
       </c>
       <c r="H228" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I228" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="J228">
         <v>24</v>
       </c>
       <c r="K228" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L228" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M228" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10408,22 +11158,22 @@
         <v>477</v>
       </c>
       <c r="H229" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I229" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J229">
         <v>24</v>
       </c>
       <c r="K229" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L229" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M229" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10446,25 +11196,25 @@
         <v>470</v>
       </c>
       <c r="G230" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H230" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I230" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J230">
         <v>24</v>
       </c>
       <c r="K230" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L230" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M230" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -10487,25 +11237,25 @@
         <v>471</v>
       </c>
       <c r="G231" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H231" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I231" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J231">
         <v>18</v>
       </c>
       <c r="K231" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L231" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M231" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -10528,25 +11278,25 @@
         <v>471</v>
       </c>
       <c r="G232" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H232" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I232" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="J232">
         <v>24</v>
       </c>
       <c r="K232" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L232" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M232" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -10568,8 +11318,20 @@
       <c r="F233" t="s">
         <v>471</v>
       </c>
+      <c r="G233" t="s">
+        <v>480</v>
+      </c>
       <c r="J233">
         <v>18</v>
+      </c>
+      <c r="K233" t="s">
+        <v>562</v>
+      </c>
+      <c r="L233" t="s">
+        <v>562</v>
+      </c>
+      <c r="M233" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -10592,25 +11354,25 @@
         <v>471</v>
       </c>
       <c r="G234" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H234" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I234" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="J234">
         <v>18</v>
       </c>
       <c r="K234" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L234" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M234" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -10633,25 +11395,25 @@
         <v>465</v>
       </c>
       <c r="G235" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H235" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I235" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J235">
         <v>24</v>
       </c>
       <c r="K235" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L235" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M235" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -10677,22 +11439,22 @@
         <v>479</v>
       </c>
       <c r="H236" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I236" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J236">
         <v>24</v>
       </c>
       <c r="K236" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L236" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M236" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -10715,25 +11477,25 @@
         <v>465</v>
       </c>
       <c r="G237" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H237" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I237" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J237">
         <v>24</v>
       </c>
       <c r="K237" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L237" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M237" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -10759,22 +11521,22 @@
         <v>479</v>
       </c>
       <c r="H238" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I238" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J238">
         <v>24</v>
       </c>
       <c r="K238" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L238" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M238" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -10800,22 +11562,22 @@
         <v>477</v>
       </c>
       <c r="H239" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I239" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J239">
         <v>24</v>
       </c>
       <c r="K239" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L239" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M239" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -10841,22 +11603,22 @@
         <v>478</v>
       </c>
       <c r="H240" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="I240" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J240">
         <v>24</v>
       </c>
       <c r="K240" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L240" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M240" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -10879,22 +11641,22 @@
         <v>477</v>
       </c>
       <c r="H241" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I241" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J241">
         <v>24</v>
       </c>
       <c r="K241" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L241" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M241" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -10916,8 +11678,20 @@
       <c r="F242" t="s">
         <v>472</v>
       </c>
+      <c r="G242" t="s">
+        <v>480</v>
+      </c>
       <c r="J242">
         <v>24</v>
+      </c>
+      <c r="K242" t="s">
+        <v>562</v>
+      </c>
+      <c r="L242" t="s">
+        <v>562</v>
+      </c>
+      <c r="M242" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -10943,22 +11717,22 @@
         <v>479</v>
       </c>
       <c r="H243" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I243" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J243">
         <v>24</v>
       </c>
       <c r="K243" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L243" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M243" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -10981,25 +11755,25 @@
         <v>470</v>
       </c>
       <c r="G244" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H244" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I244" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J244">
         <v>24</v>
       </c>
       <c r="K244" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L244" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M244" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -11025,22 +11799,22 @@
         <v>479</v>
       </c>
       <c r="H245" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I245" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J245">
         <v>24</v>
       </c>
       <c r="K245" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L245" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M245" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -11063,25 +11837,25 @@
         <v>408</v>
       </c>
       <c r="G246" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H246" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="I246" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J246">
         <v>24</v>
       </c>
       <c r="K246" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L246" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M246" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -11107,22 +11881,22 @@
         <v>477</v>
       </c>
       <c r="H247" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I247" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J247">
         <v>24</v>
       </c>
       <c r="K247" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L247" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M247" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -11145,25 +11919,25 @@
         <v>473</v>
       </c>
       <c r="G248" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H248" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I248" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="J248">
         <v>24</v>
       </c>
       <c r="K248" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L248" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M248" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -11189,22 +11963,22 @@
         <v>479</v>
       </c>
       <c r="H249" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I249" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J249">
         <v>24</v>
       </c>
       <c r="K249" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L249" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M249" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -11227,25 +12001,25 @@
         <v>473</v>
       </c>
       <c r="G250" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H250" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I250" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J250">
         <v>24</v>
       </c>
       <c r="K250" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L250" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M250" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -11271,22 +12045,22 @@
         <v>477</v>
       </c>
       <c r="H251" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I251" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J251">
         <v>24</v>
       </c>
       <c r="K251" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L251" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M251" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -11312,22 +12086,22 @@
         <v>478</v>
       </c>
       <c r="H252" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I252" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="J252">
         <v>24</v>
       </c>
       <c r="K252" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L252" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M252" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11350,25 +12124,25 @@
         <v>473</v>
       </c>
       <c r="G253" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H253" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I253" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="J253">
         <v>24</v>
       </c>
       <c r="K253" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L253" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M253" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -11394,22 +12168,22 @@
         <v>479</v>
       </c>
       <c r="H254" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I254" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J254">
         <v>24</v>
       </c>
       <c r="K254" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L254" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M254" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -11429,25 +12203,25 @@
         <v>474</v>
       </c>
       <c r="G255" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H255" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="I255" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="J255">
         <v>25</v>
       </c>
       <c r="K255" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L255" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M255" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -11467,25 +12241,25 @@
         <v>474</v>
       </c>
       <c r="G256" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H256" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="I256" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="J256">
         <v>14</v>
       </c>
       <c r="K256" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L256" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M256" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -11505,25 +12279,25 @@
         <v>474</v>
       </c>
       <c r="G257" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H257" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I257" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J257">
         <v>14</v>
       </c>
       <c r="K257" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L257" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M257" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -11549,22 +12323,22 @@
         <v>479</v>
       </c>
       <c r="H258" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I258" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J258">
         <v>14</v>
       </c>
       <c r="K258" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L258" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M258" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -11584,25 +12358,25 @@
         <v>474</v>
       </c>
       <c r="G259" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H259" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I259" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J259">
         <v>14</v>
       </c>
       <c r="K259" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L259" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M259" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -11624,11 +12398,23 @@
       <c r="F260" t="s">
         <v>474</v>
       </c>
+      <c r="G260" t="s">
+        <v>489</v>
+      </c>
       <c r="J260">
         <v>7</v>
       </c>
+      <c r="K260" t="s">
+        <v>489</v>
+      </c>
+      <c r="L260" t="s">
+        <v>489</v>
+      </c>
+      <c r="M260" t="s">
+        <v>489</v>
+      </c>
       <c r="N260" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -11650,8 +12436,20 @@
       <c r="F261" t="s">
         <v>474</v>
       </c>
+      <c r="G261" t="s">
+        <v>480</v>
+      </c>
       <c r="J261">
         <v>14</v>
+      </c>
+      <c r="K261" t="s">
+        <v>480</v>
+      </c>
+      <c r="L261" t="s">
+        <v>480</v>
+      </c>
+      <c r="M261" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -11673,8 +12471,20 @@
       <c r="F262" t="s">
         <v>472</v>
       </c>
+      <c r="G262" t="s">
+        <v>480</v>
+      </c>
       <c r="J262">
         <v>14</v>
+      </c>
+      <c r="K262" t="s">
+        <v>480</v>
+      </c>
+      <c r="L262" t="s">
+        <v>480</v>
+      </c>
+      <c r="M262" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -11696,8 +12506,20 @@
       <c r="F263" t="s">
         <v>475</v>
       </c>
+      <c r="G263" t="s">
+        <v>489</v>
+      </c>
       <c r="J263">
         <v>20</v>
+      </c>
+      <c r="K263" t="s">
+        <v>489</v>
+      </c>
+      <c r="L263" t="s">
+        <v>489</v>
+      </c>
+      <c r="M263" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -11717,25 +12539,25 @@
         <v>476</v>
       </c>
       <c r="G264" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H264" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I264" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J264">
         <v>20</v>
       </c>
       <c r="K264" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L264" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M264" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
